--- a/files/AndreKortekaas/file_02.xlsx
+++ b/files/AndreKortekaas/file_02.xlsx
@@ -1,39 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A. Kortekaas\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430C5B4B-1BCE-4EFE-A1C0-FA416CDD4BEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11325" windowWidth="21600" xWindow="1830" yWindow="-14370"/>
+    <workbookView xWindow="1395" yWindow="-14805" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
+  <si>
+    <t>K001</t>
+  </si>
+  <si>
+    <t>Ik wil kijken of dit werkt</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Ik wil het na de import controleren</t>
+  </si>
+  <si>
+    <t>K003</t>
+  </si>
+  <si>
+    <t>K004</t>
+  </si>
+  <si>
+    <t>K005</t>
+  </si>
+  <si>
+    <t>K006</t>
+  </si>
+  <si>
+    <t>K007</t>
+  </si>
+  <si>
+    <t>K008</t>
+  </si>
+  <si>
+    <t>K009</t>
+  </si>
+  <si>
+    <t>K010</t>
+  </si>
+  <si>
+    <t>K102</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,15 +92,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,290 +409,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>K001</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Ik wil het na de import controleren</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>K102</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ik wil het na de import controleren</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>K003</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ik wil het na de import controleren</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>K004</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ik wil het na de import controleren</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>K005</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ik wil het na de import controleren</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>K006</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ik wil het na de import controleren</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>K007</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ik wil het na de import controleren</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>K008</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ik wil het na de import controleren</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>K009</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Ik wil het na de import controleren</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>K010</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ik wil kijken of dit werkt</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Ik wil het na de import controleren</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>